--- a/va_facility_data_2025-02-20/Alamosa VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Alamosa%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Alamosa VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Alamosa%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf4f74a54d1ca496595e6cf649fb72d4a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf897bb8f913643339015eda409671c4c"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8137fa3ac12342af883297cb58cb5f35"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R3912f930a4d946e9b9db9855b86e9d3b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rdf6f21a9b6bd486394ee9139e4b21681"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R53a09c5f16534079971ef2d455892dd1"/>
   </x:sheets>
 </x:workbook>
 </file>
